--- a/medicine/Médecine vétérinaire/Xylazine/Xylazine.xlsx
+++ b/medicine/Médecine vétérinaire/Xylazine/Xylazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La xylazine est un α2-agoniste utilisé en anesthésiologie vétérinaire. Il possède également d'autres indications, notamment en endocrinologie. Sa valence analgésique est assez faible, en comparaison avec les autres membres de sa classe.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La xylazine agit sur les récepteurs adrénergiques α2 localisés dans le système nerveux central et le cœur. Elle diminue la libération de noradrénaline et provoque une inhibition du système nerveux sympathique. Ainsi, la xylazine est responsable d'une diminution de la vigilance, de la nociception et du tonus musculaire.
 À l'étage cardiaque, elle provoque une bradyarythmie.
@@ -545,7 +559,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La biodisponibilité de la xylazine est très variable chez le chien, entre 52 et 90 % après administration par voie intramusculaire. La xylazine agit en 10 à 15 minutes par voies intramusculaire et sous-cutanée, et en 3 à 5 minutes par voie intraveineuse. L'effet analgésique ne dure que 15 à 30 minutes tandis que l'effet sédatif dure 1 à 2 heures.
 Le temps de demi-vie plasmatique est de 30 minutes chez le chien. La xylazine subit une métabolisation hépatique et est excrétée via les urines.
@@ -577,7 +593,9 @@
           <t>Utilisation / Posologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La xylazine possède une activité sympatholytique. Elle est utilisée en médecine vétérinaire comme sédatif et myorelaxant, ainsi que comme analgésique.
 En anesthésiologie, elle est indiquée pour la prémédication et la sédanalgésie. Elle potentialise la narcose et la myorelaxation des anesthésiques halogénés volatils (halothane, isoflurane, etc.).
@@ -611,7 +629,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La xylazine provoque une dépression cardio-respiratoire importante à l'origine d'une bradycardie sinusale, de blocs atrio-ventriculaires et d'une bradypnée. Elle induit également une vasoconstriction. Sur le plan hémodynamique, la xylazine provoque d'abord une hypertension puis une hypotension.
 Elle diminue les contractions des muscles lisses : elle freine ainsi la motricité gastro-intestinale et favorise l'aérogastrie. En conséquence, il est déconseillé d'utiliser la xylazine pour tout examen d'imagerie médicale du tube digestif.
@@ -643,7 +663,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arythmie ventriculaire
 Insuffisance cardiaque, insuffisance respiratoire
@@ -677,7 +699,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acépromazine peut potentialiser l'hypotension provoquée par la xylazine. L'association avec l'adrénaline (ou épinéphrine) peut augmenter les risques d'arythmie ventriculaire.
 </t>
@@ -708,7 +732,9 @@
           <t>Antagonisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La xylazine est antagonisée par des α2-antagonistes, comme l'atipamézole, la yohimbine et la tolazoline.
 </t>
@@ -739,7 +765,9 @@
           <t>Médicaments vétérinaires disponibles en France</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Rompun 2 % (xylazine)
 Antisédan (atipamézole)</t>
@@ -770,11 +798,13 @@
           <t>Adjuvant de drogues</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La xylazine est utilisée aux États-Unis pour gonfler les doses des drogues dures, notamment de l'opioïde fentanyl. Elle y est connue sous les noms tranq, tranq dope (diminutifs de « tranquillisant ») et zombie drug (« drogue du zombie »). Au niveau national, la xylazine est présente dans 25 % des drogues vendues ; la ville de Philadelphie, au Nord-Est des États-Unis, est la plus concernée par ce phénomène, avec plus de 90 % des échantillons de drogues saisies testés positifs à cette molécule[2],[3].
-Chez les usagers, la xylazine provoque « des pertes de connaissance, des états de stupeur durables » et cause chez les usagers injecteurs « des blessures qui dégénèrent en escarres puis en gangrène et en nécroses, qui, si elles ne sont pas traitées à temps, peuvent nécessiter des amputations ». De plus, elle renforce les risques d'overdose aux opioïdes en ne réagissant pas aux traitements habituellement utilisés contre ces dernières[2],[3]. 
-Fin 2022, début 2023, services sociaux et Food and Drug Administration tentent d'alerter médias et médecins afin de limiter les ravages sanitaires et sociaux de cette substance[2],[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La xylazine est utilisée aux États-Unis pour gonfler les doses des drogues dures, notamment de l'opioïde fentanyl. Elle y est connue sous les noms tranq, tranq dope (diminutifs de « tranquillisant ») et zombie drug (« drogue du zombie »). Au niveau national, la xylazine est présente dans 25 % des drogues vendues ; la ville de Philadelphie, au Nord-Est des États-Unis, est la plus concernée par ce phénomène, avec plus de 90 % des échantillons de drogues saisies testés positifs à cette molécule,.
+Chez les usagers, la xylazine provoque « des pertes de connaissance, des états de stupeur durables » et cause chez les usagers injecteurs « des blessures qui dégénèrent en escarres puis en gangrène et en nécroses, qui, si elles ne sont pas traitées à temps, peuvent nécessiter des amputations ». De plus, elle renforce les risques d'overdose aux opioïdes en ne réagissant pas aux traitements habituellement utilisés contre ces dernières,. 
+Fin 2022, début 2023, services sociaux et Food and Drug Administration tentent d'alerter médias et médecins afin de limiter les ravages sanitaires et sociaux de cette substance,.
 </t>
         </is>
       </c>
